--- a/biology/Médecine/Ivan_Puluj/Ivan_Puluj.xlsx
+++ b/biology/Médecine/Ivan_Puluj/Ivan_Puluj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Pavlovytch Pouliouï, dit Ivan Puluj (en ukrainien : Іва́н Па́влович Пулю́й ; en allemand : Johann Puluj), né le 2 février 1845 à Hrymaliv, en Galicie, actuellement dans l'oblast de Ternopil en Ukraine et mort le 31 janvier 1918 à Prague, est un physicien et inventeur ukrainien, pionnier du développement et de l'utilisation des rayons X dans l'imagerie médicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Puluj obtient deux diplômes de l'université de Vienne : un en théologie en 1869 et un en philosophie en 1872. Il finit son doctorat, dirigé par August Kundt à l'université de Strasbourg et portant sur la friction interne des gaz en 1876. Il enseigne à l'académie de la marine de Fiume, en Croatie, de 1874 à 1876, à l'université de Vienne de 1874 à 1884 et à l'université technique de Prague de 1884 à 1916. Il est recteur de cette dernière en 1888 et 1889. Il sert aussi d'expert en électrotechnique auprès des gouvernements de Bohême et de Moravie
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Promotion de la culture ukrainienne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il soutient l'ouverture d'une université ukrainienne à Lviv et publie de nombreux articles soutenant la langue ukrainienne, traduisant même la Bible en ukrainien[1],[2]. Il existe l'université nationale technique Ivan-Puluj de Ternopil.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il soutient l'ouverture d'une université ukrainienne à Lviv et publie de nombreux articles soutenant la langue ukrainienne, traduisant même la Bible en ukrainien,. Il existe l'université nationale technique Ivan-Puluj de Ternopil.
 </t>
         </is>
       </c>
